--- a/backend/pdf_processing/output.xlsx
+++ b/backend/pdf_processing/output.xlsx
@@ -49,7 +49,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -76,9 +76,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1646,7 +1643,7 @@
           <t>LFMT</t>
         </is>
       </c>
-      <c r="C34" s="10" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>Departure (Name: MONTPELLIER/MEDITERRANEE, Code: ___, Elevation: 17, QFU°/QFU°: ___, DA: ___, Circuit pattern altitude: ___;
     ATIS: 124.13, GND: 121.955, TWR: 118.775, A/A: _____ Approach: _____;
@@ -1655,7 +1652,6 @@
     RWY: ____, Wind: _______, QNH: _______, Squak: _______</t>
         </is>
       </c>
-      <c r="E34" s="5" t="n"/>
       <c r="M34" s="3" t="n"/>
       <c r="N34" s="3" t="n"/>
       <c r="O34" s="3" t="n"/>

--- a/backend/pdf_processing/output.xlsx
+++ b/backend/pdf_processing/output.xlsx
@@ -1643,7 +1643,7 @@
           <t>LFMT</t>
         </is>
       </c>
-      <c r="E34" s="5" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Departure (Name: MONTPELLIER/MEDITERRANEE, Code: ___, Elevation: 17, QFU°/QFU°: ___, DA: ___, Circuit pattern altitude: ___;
     ATIS: 124.13, GND: 121.955, TWR: 118.775, A/A: _____ Approach: _____;
